--- a/fundData/沪深300被动代码.xlsx
+++ b/fundData/沪深300被动代码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\blog\fundData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\blogs\fundData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CA5DA8-C520-424A-B05B-27FFCFDB3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0C2C88-D1F5-4D16-9504-2C90147F0B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>110020</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>160807</t>
+  </si>
+  <si>
+    <t>006131</t>
   </si>
 </sst>
 </file>
@@ -412,117 +415,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
